--- a/top-subdomains-alexa.xlsx
+++ b/top-subdomains-alexa.xlsx
@@ -26,772 +26,772 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
-    <t>accounts.craigslist.org</t>
-  </si>
-  <si>
-    <t>post.craigslist.org</t>
-  </si>
-  <si>
-    <t>sfbay.craigslist.org</t>
-  </si>
-  <si>
-    <t>craigslist.org</t>
-  </si>
-  <si>
-    <t>losangeles.craigslist.org</t>
-  </si>
-  <si>
-    <t>newyork.craigslist.org</t>
-  </si>
-  <si>
-    <t>seattle.craigslist.org</t>
-  </si>
-  <si>
-    <t>chicago.craigslist.org</t>
-  </si>
-  <si>
-    <t>sandiego.craigslist.org</t>
-  </si>
-  <si>
-    <t>orangecounty.craigslist.org</t>
-  </si>
-  <si>
-    <t>portland.craigslist.org</t>
-  </si>
-  <si>
-    <t>geo.craigslist.org</t>
-  </si>
-  <si>
-    <t>washingtondc.craigslist.org</t>
-  </si>
-  <si>
-    <t>boston.craigslist.org</t>
-  </si>
-  <si>
-    <t>phoenix.craigslist.org</t>
-  </si>
-  <si>
-    <t>atlanta.craigslist.org</t>
-  </si>
-  <si>
-    <t>sacramento.craigslist.org</t>
-  </si>
-  <si>
-    <t>dallas.craigslist.org</t>
-  </si>
-  <si>
-    <t>denver.craigslist.org</t>
-  </si>
-  <si>
-    <t>miami.craigslist.org</t>
-  </si>
-  <si>
-    <t>minneapolis.craigslist.org</t>
-  </si>
-  <si>
-    <t>inlandempire.craigslist.org</t>
-  </si>
-  <si>
-    <t>austin.craigslist.org</t>
-  </si>
-  <si>
-    <t>philadelphia.craigslist.org</t>
-  </si>
-  <si>
-    <t>houston.craigslist.org</t>
-  </si>
-  <si>
-    <t>tampa.craigslist.org</t>
-  </si>
-  <si>
-    <t>orlando.craigslist.org</t>
-  </si>
-  <si>
-    <t>newjersey.craigslist.org</t>
-  </si>
-  <si>
-    <t>raleigh.craigslist.org</t>
-  </si>
-  <si>
-    <t>detroit.craigslist.org</t>
-  </si>
-  <si>
-    <t>cnj.craigslist.org</t>
-  </si>
-  <si>
-    <t>baltimore.craigslist.org</t>
-  </si>
-  <si>
-    <t>lasvegas.craigslist.org</t>
-  </si>
-  <si>
-    <t>charlotte.craigslist.org</t>
-  </si>
-  <si>
-    <t>milwaukee.craigslist.org</t>
-  </si>
-  <si>
-    <t>stlouis.craigslist.org</t>
-  </si>
-  <si>
-    <t>kansascity.craigslist.org</t>
-  </si>
-  <si>
-    <t>nashville.craigslist.org</t>
-  </si>
-  <si>
-    <t>columbus.craigslist.org</t>
-  </si>
-  <si>
-    <t>sanantonio.craigslist.org</t>
-  </si>
-  <si>
-    <t>nh.craigslist.org</t>
-  </si>
-  <si>
-    <t>cincinnati.craigslist.org</t>
-  </si>
-  <si>
-    <t>longisland.craigslist.org</t>
-  </si>
-  <si>
-    <t>hudsonvalley.craigslist.org</t>
-  </si>
-  <si>
-    <t>pittsburgh.craigslist.org</t>
-  </si>
-  <si>
-    <t>fortmyers.craigslist.org</t>
-  </si>
-  <si>
-    <t>forums.craigslist.org</t>
-  </si>
-  <si>
-    <t>madison.craigslist.org</t>
-  </si>
-  <si>
-    <t>cosprings.craigslist.org</t>
-  </si>
-  <si>
-    <t>ventura.craigslist.org</t>
-  </si>
-  <si>
-    <t>hartford.craigslist.org</t>
-  </si>
-  <si>
-    <t>cleveland.craigslist.org</t>
-  </si>
-  <si>
-    <t>providence.craigslist.org</t>
-  </si>
-  <si>
-    <t>tucson.craigslist.org</t>
-  </si>
-  <si>
-    <t>indianapolis.craigslist.org</t>
-  </si>
-  <si>
-    <t>jacksonville.craigslist.org</t>
-  </si>
-  <si>
-    <t>maine.craigslist.org</t>
-  </si>
-  <si>
-    <t>southjersey.craigslist.org</t>
-  </si>
-  <si>
-    <t>richmond.craigslist.org</t>
-  </si>
-  <si>
-    <t>honolulu.craigslist.org</t>
-  </si>
-  <si>
-    <t>grandrapids.craigslist.org</t>
-  </si>
-  <si>
-    <t>eugene.craigslist.org</t>
-  </si>
-  <si>
-    <t>bellingham.craigslist.org</t>
-  </si>
-  <si>
-    <t>greenville.craigslist.org</t>
-  </si>
-  <si>
-    <t>sarasota.craigslist.org</t>
-  </si>
-  <si>
-    <t>modesto.craigslist.org</t>
-  </si>
-  <si>
-    <t>images.craigslist.org</t>
-  </si>
-  <si>
-    <t>worcester.craigslist.org</t>
-  </si>
-  <si>
-    <t>burlington.craigslist.org</t>
-  </si>
-  <si>
-    <t>albany.craigslist.org</t>
-  </si>
-  <si>
-    <t>louisville.craigslist.org</t>
-  </si>
-  <si>
-    <t>spokane.craigslist.org</t>
-  </si>
-  <si>
-    <t>boise.craigslist.org</t>
-  </si>
-  <si>
-    <t>fortcollins.craigslist.org</t>
-  </si>
-  <si>
-    <t>greensboro.craigslist.org</t>
-  </si>
-  <si>
-    <t>stockton.craigslist.org</t>
-  </si>
-  <si>
-    <t>boulder.craigslist.org</t>
-  </si>
-  <si>
-    <t>newhaven.craigslist.org</t>
-  </si>
-  <si>
-    <t>asheville.craigslist.org</t>
-  </si>
-  <si>
-    <t>norfolk.craigslist.org</t>
-  </si>
-  <si>
-    <t>westernmass.craigslist.org</t>
-  </si>
-  <si>
-    <t>reno.craigslist.org</t>
-  </si>
-  <si>
-    <t>oklahomacity.craigslist.org</t>
-  </si>
-  <si>
-    <t>knoxville.craigslist.org</t>
-  </si>
-  <si>
-    <t>buffalo.craigslist.org</t>
-  </si>
-  <si>
-    <t>akroncanton.craigslist.org</t>
-  </si>
-  <si>
-    <t>annarbor.craigslist.org</t>
-  </si>
-  <si>
-    <t>tulsa.craigslist.org</t>
-  </si>
-  <si>
-    <t>rochester.craigslist.org</t>
-  </si>
-  <si>
-    <t>dayton.craigslist.org</t>
-  </si>
-  <si>
-    <t>allentown.craigslist.org</t>
-  </si>
-  <si>
-    <t>ocala.craigslist.org</t>
-  </si>
-  <si>
-    <t>daytona.craigslist.org</t>
-  </si>
-  <si>
-    <t>santabarbara.craigslist.org</t>
-  </si>
-  <si>
-    <t>lancaster.craigslist.org</t>
-  </si>
-  <si>
-    <t>palmsprings.craigslist.org</t>
-  </si>
-  <si>
-    <t>slo.craigslist.org</t>
-  </si>
-  <si>
-    <t>jerseyshore.craigslist.org</t>
-  </si>
-  <si>
-    <t>desmoines.craigslist.org</t>
-  </si>
-  <si>
-    <t>fresno.craigslist.org</t>
-  </si>
-  <si>
-    <t>omaha.craigslist.org</t>
-  </si>
-  <si>
-    <t>bakersfield.craigslist.org</t>
-  </si>
-  <si>
-    <t>salem.craigslist.org</t>
-  </si>
-  <si>
-    <t>delaware.craigslist.org</t>
-  </si>
-  <si>
-    <t>newlondon.craigslist.org</t>
-  </si>
-  <si>
-    <t>neworleans.craigslist.org</t>
-  </si>
-  <si>
-    <t>bham.craigslist.org</t>
-  </si>
-  <si>
-    <t>monterey.craigslist.org</t>
-  </si>
-  <si>
-    <t>bend.craigslist.org</t>
-  </si>
-  <si>
-    <t>albuquerque.craigslist.org</t>
-  </si>
-  <si>
-    <t>winstonsalem.craigslist.org</t>
-  </si>
-  <si>
-    <t>charleston.craigslist.org</t>
-  </si>
-  <si>
-    <t>lakeland.craigslist.org</t>
-  </si>
-  <si>
-    <t>treasure.craigslist.org</t>
-  </si>
-  <si>
-    <t>columbia.craigslist.org</t>
-  </si>
-  <si>
-    <t>springfield.craigslist.org</t>
-  </si>
-  <si>
-    <t>lexington.craigslist.org</t>
-  </si>
-  <si>
-    <t>spacecoast.craigslist.org</t>
-  </si>
-  <si>
-    <t>southbend.craigslist.org</t>
-  </si>
-  <si>
-    <t>appleton.craigslist.org</t>
-  </si>
-  <si>
-    <t>harrisburg.craigslist.org</t>
-  </si>
-  <si>
-    <t>chico.craigslist.org</t>
-  </si>
-  <si>
-    <t>syracuse.craigslist.org</t>
-  </si>
-  <si>
-    <t>goldcountry.craigslist.org</t>
-  </si>
-  <si>
-    <t>huntsville.craigslist.org</t>
-  </si>
-  <si>
-    <t>frederick.craigslist.org</t>
-  </si>
-  <si>
-    <t>chattanooga.craigslist.org</t>
-  </si>
-  <si>
-    <t>eastnc.craigslist.org</t>
-  </si>
-  <si>
-    <t>corvallis.craigslist.org</t>
-  </si>
-  <si>
-    <t>annapolis.craigslist.org</t>
-  </si>
-  <si>
-    <t>medford.craigslist.org</t>
-  </si>
-  <si>
-    <t>fredericksburg.craigslist.org</t>
-  </si>
-  <si>
-    <t>saltlakecity.craigslist.org</t>
-  </si>
-  <si>
-    <t>rockford.craigslist.org</t>
-  </si>
-  <si>
-    <t>fayar.craigslist.org</t>
-  </si>
-  <si>
-    <t>gainesville.craigslist.org</t>
-  </si>
-  <si>
-    <t>columbiamo.craigslist.org</t>
-  </si>
-  <si>
-    <t>memphis.craigslist.org</t>
-  </si>
-  <si>
-    <t>easttexas.craigslist.org</t>
-  </si>
-  <si>
-    <t>lansing.craigslist.org</t>
-  </si>
-  <si>
-    <t>eauclaire.craigslist.org</t>
-  </si>
-  <si>
-    <t>killeen.craigslist.org</t>
-  </si>
-  <si>
-    <t>kpr.craigslist.org</t>
-  </si>
-  <si>
-    <t>york.craigslist.org</t>
-  </si>
-  <si>
-    <t>toledo.craigslist.org</t>
-  </si>
-  <si>
-    <t>athensga.craigslist.org</t>
-  </si>
-  <si>
-    <t>greenbay.craigslist.org</t>
-  </si>
-  <si>
-    <t>reading.craigslist.org</t>
-  </si>
-  <si>
-    <t>stcloud.craigslist.org</t>
-  </si>
-  <si>
-    <t>littlerock.craigslist.org</t>
-  </si>
-  <si>
-    <t>redding.craigslist.org</t>
-  </si>
-  <si>
-    <t>easternshore.craigslist.org</t>
-  </si>
-  <si>
-    <t>savannah.craigslist.org</t>
-  </si>
-  <si>
-    <t>racine.craigslist.org</t>
-  </si>
-  <si>
-    <t>charlottesville.craigslist.org</t>
-  </si>
-  <si>
-    <t>fayetteville.craigslist.org</t>
-  </si>
-  <si>
-    <t>wilmington.craigslist.org</t>
-  </si>
-  <si>
-    <t>rmn.craigslist.org</t>
-  </si>
-  <si>
-    <t>youngstown.craigslist.org</t>
-  </si>
-  <si>
-    <t>macon.craigslist.org</t>
-  </si>
-  <si>
-    <t>flint.craigslist.org</t>
-  </si>
-  <si>
-    <t>flagstaff.craigslist.org</t>
-  </si>
-  <si>
-    <t>lincoln.craigslist.org</t>
-  </si>
-  <si>
-    <t>anchorage.craigslist.org</t>
-  </si>
-  <si>
-    <t>skagit.craigslist.org</t>
-  </si>
-  <si>
-    <t>mobile.craigslist.org</t>
-  </si>
-  <si>
-    <t>kalamazoo.craigslist.org</t>
-  </si>
-  <si>
-    <t>wichita.craigslist.org</t>
-  </si>
-  <si>
-    <t>roanoke.craigslist.org</t>
-  </si>
-  <si>
-    <t>scranton.craigslist.org</t>
-  </si>
-  <si>
-    <t>tricities.craigslist.org</t>
-  </si>
-  <si>
-    <t>pensacola.craigslist.org</t>
-  </si>
-  <si>
-    <t>batonrouge.craigslist.org</t>
-  </si>
-  <si>
-    <t>capecod.craigslist.org</t>
-  </si>
-  <si>
-    <t>fortwayne.craigslist.org</t>
-  </si>
-  <si>
-    <t>oregoncoast.craigslist.org</t>
-  </si>
-  <si>
-    <t>tallahassee.craigslist.org</t>
-  </si>
-  <si>
-    <t>southcoast.craigslist.org</t>
-  </si>
-  <si>
-    <t>cedarrapids.craigslist.org</t>
-  </si>
-  <si>
-    <t>myrtlebeach.craigslist.org</t>
-  </si>
-  <si>
-    <t>nwct.craigslist.org</t>
-  </si>
-  <si>
-    <t>collegestation.craigslist.org</t>
-  </si>
-  <si>
-    <t>bloomington.craigslist.org</t>
-  </si>
-  <si>
-    <t>prescott.craigslist.org</t>
-  </si>
-  <si>
-    <t>binghamton.craigslist.org</t>
-  </si>
-  <si>
-    <t>wausau.craigslist.org</t>
-  </si>
-  <si>
-    <t>yakima.craigslist.org</t>
-  </si>
-  <si>
-    <t>nmi.craigslist.org</t>
-  </si>
-  <si>
-    <t>westslope.craigslist.org</t>
-  </si>
-  <si>
-    <t>wenatchee.craigslist.org</t>
-  </si>
-  <si>
-    <t>waco.craigslist.org</t>
-  </si>
-  <si>
-    <t>rockies.craigslist.org</t>
-  </si>
-  <si>
-    <t>augusta.craigslist.org</t>
-  </si>
-  <si>
-    <t>staugustine.craigslist.org</t>
-  </si>
-  <si>
-    <t>duluth.craigslist.org</t>
-  </si>
-  <si>
-    <t>santafe.craigslist.org</t>
-  </si>
-  <si>
-    <t>missoula.craigslist.org</t>
-  </si>
-  <si>
-    <t>eastidaho.craigslist.org</t>
-  </si>
-  <si>
-    <t>elpaso.craigslist.org</t>
-  </si>
-  <si>
-    <t>nwga.craigslist.org</t>
-  </si>
-  <si>
-    <t>kalispell.craigslist.org</t>
-  </si>
-  <si>
-    <t>olympic.craigslist.org</t>
-  </si>
-  <si>
-    <t>chambana.craigslist.org</t>
-  </si>
-  <si>
-    <t>quadcities.craigslist.org</t>
-  </si>
-  <si>
-    <t>humboldt.craigslist.org</t>
-  </si>
-  <si>
-    <t>bgky.craigslist.org</t>
-  </si>
-  <si>
-    <t>hickory.craigslist.org</t>
-  </si>
-  <si>
-    <t>bozeman.craigslist.org</t>
-  </si>
-  <si>
-    <t>fargo.craigslist.org</t>
-  </si>
-  <si>
-    <t>mankato.craigslist.org</t>
-  </si>
-  <si>
-    <t>lynchburg.craigslist.org</t>
-  </si>
-  <si>
-    <t>es.craigslist.org</t>
-  </si>
-  <si>
-    <t>springfieldil.craigslist.org</t>
-  </si>
-  <si>
-    <t>ithaca.craigslist.org</t>
-  </si>
-  <si>
-    <t>topeka.craigslist.org</t>
-  </si>
-  <si>
-    <t>joplin.craigslist.org</t>
-  </si>
-  <si>
-    <t>carbondale.craigslist.org</t>
-  </si>
-  <si>
-    <t>evansville.craigslist.org</t>
-  </si>
-  <si>
-    <t>poconos.craigslist.org</t>
-  </si>
-  <si>
-    <t>lacrosse.craigslist.org</t>
-  </si>
-  <si>
-    <t>panamacity.craigslist.org</t>
-  </si>
-  <si>
-    <t>blacksburg.craigslist.org</t>
-  </si>
-  <si>
-    <t>saginaw.craigslist.org</t>
-  </si>
-  <si>
-    <t>mohave.craigslist.org</t>
-  </si>
-  <si>
-    <t>mansfield.craigslist.org</t>
-  </si>
-  <si>
-    <t>peoria.craigslist.org</t>
-  </si>
-  <si>
-    <t>gulfport.craigslist.org</t>
-  </si>
-  <si>
-    <t>jackson.craigslist.org</t>
-  </si>
-  <si>
-    <t>shreveport.craigslist.org</t>
-  </si>
-  <si>
-    <t>okaloosa.craigslist.org</t>
-  </si>
-  <si>
-    <t>en.craigslist.org</t>
-  </si>
-  <si>
-    <t>dothan.craigslist.org</t>
-  </si>
-  <si>
-    <t>keys.craigslist.org</t>
-  </si>
-  <si>
-    <t>limaohio.craigslist.org</t>
-  </si>
-  <si>
-    <t>holland.craigslist.org</t>
-  </si>
-  <si>
-    <t>waterloo.craigslist.org</t>
-  </si>
-  <si>
-    <t>siouxfalls.craigslist.org</t>
-  </si>
-  <si>
-    <t>pennstate.craigslist.org</t>
-  </si>
-  <si>
-    <t>cairo.craigslist.org</t>
-  </si>
-  <si>
-    <t>wyoming.craigslist.org</t>
-  </si>
-  <si>
-    <t>lubbock.craigslist.org</t>
-  </si>
-  <si>
-    <t>onslow.craigslist.org</t>
-  </si>
-  <si>
-    <t>corpuschristi.craigslist.org</t>
-  </si>
-  <si>
-    <t>dubai.craigslist.org</t>
-  </si>
-  <si>
-    <t>billings.craigslist.org</t>
-  </si>
-  <si>
-    <t>lascruces.craigslist.org</t>
-  </si>
-  <si>
-    <t>utica.craigslist.org</t>
-  </si>
-  <si>
-    <t>jacksontn.craigslist.org</t>
-  </si>
-  <si>
-    <t>up.craigslist.org</t>
-  </si>
-  <si>
-    <t>stgeorge.craigslist.org</t>
-  </si>
-  <si>
-    <t>westmd.craigslist.org</t>
-  </si>
-  <si>
-    <t>lafayette.craigslist.org</t>
-  </si>
-  <si>
-    <t>mcallen.craigslist.org</t>
-  </si>
-  <si>
-    <t>fairbanks.craigslist.org</t>
-  </si>
-  <si>
-    <t>malaysia.craigslist.org</t>
-  </si>
-  <si>
-    <t>brownsville.craigslist.org</t>
+    <t>http://accounts.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://post.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://sfbay.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://craigslist.org</t>
+  </si>
+  <si>
+    <t>http://losangeles.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://newyork.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://seattle.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://chicago.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://sandiego.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://orangecounty.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://portland.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://geo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://washingtondc.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://boston.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://phoenix.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://atlanta.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://sacramento.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://dallas.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://denver.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://miami.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://minneapolis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://inlandempire.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://austin.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://philadelphia.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://houston.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://tampa.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://orlando.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://newjersey.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://raleigh.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://detroit.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cnj.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://baltimore.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lasvegas.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://charlotte.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://milwaukee.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://stlouis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://kansascity.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://nashville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://columbus.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://sanantonio.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://nh.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cincinnati.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://longisland.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://hudsonvalley.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://pittsburgh.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fortmyers.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://forums.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://madison.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cosprings.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://ventura.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://hartford.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cleveland.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://providence.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://tucson.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://indianapolis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://jacksonville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://maine.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://southjersey.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://richmond.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://honolulu.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://grandrapids.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://eugene.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bellingham.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://greenville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://sarasota.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://modesto.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://images.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://worcester.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://burlington.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://albany.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://louisville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://spokane.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://boise.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fortcollins.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://greensboro.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://stockton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://boulder.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://newhaven.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://asheville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://norfolk.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://westernmass.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://reno.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://oklahomacity.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://knoxville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://buffalo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://akroncanton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://annarbor.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://tulsa.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://rochester.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://dayton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://allentown.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://ocala.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://daytona.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://santabarbara.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lancaster.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://palmsprings.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://slo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://jerseyshore.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://desmoines.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fresno.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://omaha.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bakersfield.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://salem.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://delaware.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://newlondon.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://neworleans.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bham.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://monterey.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bend.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://albuquerque.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://winstonsalem.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://charleston.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lakeland.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://treasure.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://columbia.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://springfield.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lexington.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://spacecoast.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://southbend.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://appleton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://harrisburg.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://chico.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://syracuse.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://goldcountry.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://huntsville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://frederick.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://chattanooga.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://eastnc.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://corvallis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://annapolis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://medford.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fredericksburg.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://saltlakecity.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://rockford.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fayar.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://gainesville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://columbiamo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://memphis.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://easttexas.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lansing.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://eauclaire.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://killeen.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://kpr.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://york.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://toledo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://athensga.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://greenbay.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://reading.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://stcloud.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://littlerock.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://redding.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://easternshore.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://savannah.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://racine.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://charlottesville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fayetteville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://wilmington.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://rmn.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://youngstown.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://macon.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://flint.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://flagstaff.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lincoln.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://anchorage.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://skagit.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://mobile.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://kalamazoo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://wichita.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://roanoke.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://scranton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://tricities.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://pensacola.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://batonrouge.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://capecod.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fortwayne.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://oregoncoast.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://tallahassee.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://southcoast.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cedarrapids.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://myrtlebeach.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://nwct.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://collegestation.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bloomington.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://prescott.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://binghamton.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://wausau.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://yakima.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://nmi.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://westslope.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://wenatchee.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://waco.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://rockies.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://augusta.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://staugustine.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://duluth.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://santafe.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://missoula.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://eastidaho.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://elpaso.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://nwga.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://kalispell.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://olympic.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://chambana.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://quadcities.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://humboldt.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bgky.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://hickory.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://bozeman.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fargo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://mankato.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lynchburg.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://es.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://springfieldil.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://ithaca.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://topeka.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://joplin.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://carbondale.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://evansville.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://poconos.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lacrosse.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://panamacity.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://blacksburg.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://saginaw.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://mohave.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://mansfield.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://peoria.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://gulfport.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://jackson.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://shreveport.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://okaloosa.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://en.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://dothan.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://keys.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://limaohio.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://holland.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://waterloo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://siouxfalls.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://pennstate.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://cairo.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://wyoming.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lubbock.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://onslow.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://corpuschristi.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://dubai.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://billings.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lascruces.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://utica.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://jacksontn.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://up.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://stgeorge.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://westmd.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://lafayette.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://mcallen.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://fairbanks.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://malaysia.craigslist.org</t>
+  </si>
+  <si>
+    <t>http://brownsville.craigslist.org</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
